--- a/Div/Timeplan.xlsx
+++ b/Div/Timeplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\NTNU\Div\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{AF8FB8A0-A287-46AD-911E-33C2C6032BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F878EFF5-0D2B-4D69-8489-DA17854B4BB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t xml:space="preserve">Min klassetimeplan </t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>MATTE A - DIGITALT OPPTAK</t>
+  </si>
+  <si>
+    <t>FOTBALLTRENING -SALMAR 18:30</t>
   </si>
 </sst>
 </file>
@@ -117,7 +120,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="hh:mm;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.34998626667073579"/>
@@ -258,8 +261,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,6 +487,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,7 +787,7 @@
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -815,6 +830,30 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -830,43 +869,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1144,8 +1165,8 @@
   <dimension ref="B1:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="30" customHeight="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1157,15 +1178,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="18"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
@@ -1244,13 +1265,13 @@
         <f t="shared" ref="B5:B36" si="0">B4+TIME(0,Intervall,0)</f>
         <v>0.34375</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="30" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="27" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="2"/>
@@ -1262,10 +1283,10 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="24"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="31"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1279,10 +1300,10 @@
         <v>0.42708333333333337</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="28" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="29" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="2"/>
@@ -1297,7 +1318,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="29"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
@@ -1306,7 +1327,7 @@
         <f t="shared" si="0"/>
         <v>0.51041666666666674</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2"/>
@@ -1334,15 +1355,15 @@
         <f t="shared" si="0"/>
         <v>0.59375</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="20" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="18" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="2"/>
@@ -1353,11 +1374,11 @@
         <f t="shared" si="0"/>
         <v>0.63541666666666663</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="25"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="27"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
@@ -1392,7 +1413,9 @@
         <f t="shared" si="0"/>
         <v>0.76041666666666652</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="32" t="s">
+        <v>22</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1405,7 +1428,7 @@
         <f t="shared" si="0"/>
         <v>0.80208333333333315</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1674,7 +1697,8 @@
       <c r="I36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="G11:G12"/>
